--- a/Package_function/Kidwill.xlsx
+++ b/Package_function/Kidwill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lemon/Desktop/Проекты/KidLogic/Package_function/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF6C79-F90E-A743-A1A3-E07125557B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16843F5-03F2-5647-9D1D-BEDBAA3D293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
